--- a/Case/testcase.xlsx
+++ b/Case/testcase.xlsx
@@ -1,341 +1,214 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27075" windowHeight="12450"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27075" windowHeight="12450" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case" sheetId="1" r:id="rId1"/>
+    <sheet name="case" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
-  <si>
-    <t>case编号</t>
-  </si>
-  <si>
-    <t>作用</t>
-  </si>
-  <si>
-    <t>是否执行</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>依赖key</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>cookie操作</t>
-  </si>
-  <si>
-    <t>header操作</t>
-  </si>
-  <si>
-    <t>预期结果方式</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>yiqcase_001</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>/pub/api/v1/web/web_login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>phone=13612996061&amp;pwd=yiqing0406</t>
-  </si>
-  <si>
-    <t>mec</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>{"code": 0, "data": {"head_img": "https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/13.jpeg", "name": "hedy", "token": "xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTY1ODI5NDc1MSwiZXhwIjoxNjU4ODk5NTUxfQ.s_avvUHbNQFklLYjmYsvqMajV6hA9Aetam6WvCCj00A"}, "msg": null}</t>
-  </si>
-  <si>
-    <t>yiqcase_002</t>
-  </si>
-  <si>
-    <t>我的收藏</t>
-  </si>
-  <si>
-    <t>yiqcase_001&gt;data.token</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>/user/api/v1/favorite/page</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>token=xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTYzMDA3MzMyOCwiZXhwIjoxNjMwNjc4MTI4fQ.Y_thcqFhZixXipqJmTQqIQrSHwRyfdGisLD3Nf3Oc5Y</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>{"code": -1, "msg": "登录过期，重新登录"}</t>
-  </si>
-  <si>
-    <t>yiqcase_003</t>
-  </si>
-  <si>
-    <t>已购买课程</t>
-  </si>
-  <si>
-    <t>/user/api/v1/order/find_orders</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="26">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -650,180 +523,180 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,11 +752,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1143,200 +1079,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="10.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="27.2166666666667" customWidth="1"/>
-    <col min="8" max="8" width="36.775" customWidth="1"/>
-    <col min="9" max="9" width="11.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="16.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="73.2166666666667" customWidth="1"/>
+    <col width="10.2166666666667" customWidth="1" min="1" max="1"/>
+    <col width="11.1083333333333" customWidth="1" min="2" max="2"/>
+    <col width="18.6666666666667" customWidth="1" min="4" max="4"/>
+    <col width="10.8833333333333" customWidth="1" min="5" max="5"/>
+    <col width="27.2166666666667" customWidth="1" min="6" max="6"/>
+    <col width="36.775" customWidth="1" min="8" max="8"/>
+    <col width="11.4416666666667" customWidth="1" min="9" max="9"/>
+    <col width="16.3333333333333" customWidth="1" min="10" max="10"/>
+    <col width="16.3333333333333" customWidth="1" style="2" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="13"/>
+    <col width="73.2166666666667" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.8" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="31.8" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case编号</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>作用</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>依赖key</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>cookie操作</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>header操作</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>预期结果方式</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="31.8" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>yiqcase_001</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>/pub/api/v1/web/web_login</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>phone=13612996061&amp;pwd=yiqing0406</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>mec</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="N2" s="10" t="inlineStr">
+        <is>
+          <t>{"code": 0, "data": {"head_img": "https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/13.jpeg", "name": "hedy", "token": "xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTY1ODI5NjkzNCwiZXhwIjoxNjU4OTAxNzM0fQ.Ffzc8Emptc77nK6uyNafGr3ez-7yneCLP6MEbdsTLBc"}, "msg": null}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="31.8" customFormat="1" customHeight="1" s="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>yiqcase_002</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>我的收藏</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>yiqcase_001&gt;data.token</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>/user/api/v1/favorite/page</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>token=xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTYzMDA3MzMyOCwiZXhwIjoxNjMwNjc4MTI4fQ.Y_thcqFhZixXipqJmTQqIQrSHwRyfdGisLD3Nf3Oc5Y</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>{"code": -1, "msg": "登录过期，重新登录"}</t>
+        </is>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.8" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="31.8" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="31.8" customHeight="1" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>33</v>
+    <row r="4" ht="31.8" customFormat="1" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>yiqcase_003</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>已购买课程</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>yiqcase_001&gt;data.token</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>/user/api/v1/order/find_orders</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>token=xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTYzMDA3MzMyOCwiZXhwIjoxNjMwNjc4MTI4fQ.Y_thcqFhZixXipqJmTQqIQrSHwRyfdGisLD3Nf3Oc5Y</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>{"code": -1, "msg": "登录过期，重新登录"}</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Case/testcase.xlsx
+++ b/Case/testcase.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -52,13 +52,6 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,49 +516,52 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -575,97 +571,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,12 +1080,12 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col width="10.2166666666667" customWidth="1" min="1" max="1"/>
+    <col width="16.375" customWidth="1" min="1" max="1"/>
     <col width="11.1083333333333" customWidth="1" min="2" max="2"/>
     <col width="18.6666666666667" customWidth="1" min="4" max="4"/>
     <col width="10.8833333333333" customWidth="1" min="5" max="5"/>
@@ -1228,12 +1221,12 @@
       <c r="L2" s="3" t="n"/>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>{"code": 0, "data": {"head_img": "https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/13.jpeg", "name": "hedy", "token": "xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTY1ODI5NjkzNCwiZXhwIjoxNjU4OTAxNzM0fQ.Ffzc8Emptc77nK6uyNafGr3ez-7yneCLP6MEbdsTLBc"}, "msg": null}</t>
+          <t>{"code": 0, "data": {"head_img": "https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/13.jpeg", "name": "hedy", "token": "xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTMuanBlZyIsImlkIjo2Nzg3MTk1LCJuYW1lIjoiaGVkeSIsImlhdCI6MTY1ODM5MTU1NCwiZXhwIjoxNjU4OTk2MzU0fQ.4lmAqiXXuTSFuIgxsjhNOhVwVRX--fOTt4lQq5QVsFY"}, "msg": null}</t>
         </is>
       </c>
     </row>
